--- a/qa1.xlsx
+++ b/qa1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>问题</t>
   </si>
@@ -37,216 +37,210 @@
     <t>答案</t>
   </si>
   <si>
-    <t>TOP1</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>某实验室测定某目标物含量为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 98.5μg/kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，另一目标物为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 102μg/kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，根据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> HJ605 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要求，两者应分别保留几位数字？</t>
+    </r>
   </si>
   <si>
-    <t>TOP3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">98.5μg/kg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>某实验室测定某目标物含量为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>小于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve"> 100μg/kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，保留小数点后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位，即</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> 98.5μg/kg</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>，另一目标物为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">102μg/kg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大于等于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 100μg/kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，保留</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位有效数字，即</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> 102μg/kg</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，根据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> HJ605 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>要求，两者应分别保留几位数字？</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">98.5μg/kg </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 100μg/kg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，保留小数点后</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位，即</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 98.5μg/kg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">102μg/kg </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大于等于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 100μg/kg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，保留</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位有效数字，即</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 102μg/kg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -264,7 +258,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,15 +268,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -429,7 +430,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,78 +439,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEE822F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -623,12 +630,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -731,175 +753,177 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -953,7 +977,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -963,9 +987,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="WPS">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -997,15 +1021,15 @@
         <a:srgbClr val="E54C5E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026E5"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="WPS">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1075,132 +1099,167 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1211,79 +1270,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="52.4545454545455" style="2" customWidth="1"/>
-    <col min="3" max="3" width="57.7272727272727" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.9090909090909" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7272727272727" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.2727272727273" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.4727272727273" style="1" customWidth="1"/>
-    <col min="8" max="16382" width="9" style="2"/>
+    <col min="1" max="1" width="9.00909090909091" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52.4363636363636" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.7181818181818" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="44.25" customHeight="1" spans="1:3">
+      <c r="A2" s="6">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" ht="28" spans="1:7">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1293,14 +1326,15 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1310,7 +1344,6 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>